--- a/Day04_hw/спутатьперепутать.xlsx
+++ b/Day04_hw/спутатьперепутать.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="3.1.a PREFIX TENSE" sheetId="2" r:id="rId2"/>
-    <sheet name="3.1b PREFIX PERSONNUM" sheetId="4" r:id="rId3"/>
-    <sheet name="3.1c PREFIX TENSE PERSONNUMBER" sheetId="5" r:id="rId4"/>
-    <sheet name="3.2а PREFIX PARTICIPANT1" sheetId="7" r:id="rId5"/>
-    <sheet name="3.2b PREFIX PARTICIPANT2" sheetId="8" r:id="rId6"/>
+    <sheet name="3.2b PREFIX PARTICIPANT2" sheetId="11" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="3.1.a PREFIX TENSE" sheetId="2" r:id="rId3"/>
+    <sheet name="3.1b PREFIX PERSONNUM" sheetId="4" r:id="rId4"/>
+    <sheet name="3.1c PREFIX TENSE PERSONNUMBER" sheetId="5" r:id="rId5"/>
+    <sheet name="3.2а PREFIX PARTICIPANT1" sheetId="7" r:id="rId6"/>
     <sheet name="3.3 График" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,8 +25,8 @@
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
     <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
-    <pivotCache cacheId="4" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId11"/>
+    <pivotCache cacheId="8" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="607">
   <si>
     <t>Random</t>
   </si>
@@ -3149,9 +3149,6 @@
   </si>
   <si>
     <t>отсутствует</t>
-  </si>
-  <si>
-    <t>абстрактый объект</t>
   </si>
   <si>
     <t>абстрактный объект</t>
@@ -3297,6 +3294,1040 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[спутатьперепутать.xlsx]3.2b PREFIX PARTICIPANT2!Сводная таблица1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>абстрактный объект</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>животное</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>лицо</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>место</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$F$5:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>не определено</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$G$5:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>неодушевленный конкретный объект</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$H$5:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>отсутствует</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$I$5:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="420564175"/>
+        <c:axId val="420564591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="420564175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420564591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420564591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420564175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3793,7 +4824,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5150,6 +6181,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5232,7 +6264,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5535,6 +6567,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5562,6 +6597,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5589,6 +6627,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5616,6 +6657,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5643,6 +6687,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5670,6 +6717,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5697,6 +6747,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5728,6 +6781,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5758,6 +6814,264 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -6599,6 +7913,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6681,7 +7996,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -7104,1424 +8419,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1119802688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[спутатьперепутать.xlsx]3.2b PREFIX PARTICIPANT2!Сводная таблица19</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$B$3:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$B$5:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E71-43B1-9FFA-5FF2C7B8AC49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>абстрактный объект</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$C$5:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E71-43B1-9FFA-5FF2C7B8AC49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>абстрактый объект</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$D$5:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5E71-43B1-9FFA-5FF2C7B8AC49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$E$3:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>животное</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5E71-43B1-9FFA-5FF2C7B8AC49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$F$3:$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>лицо</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$F$5:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5E71-43B1-9FFA-5FF2C7B8AC49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$G$3:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>место</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$G$5:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5E71-43B1-9FFA-5FF2C7B8AC49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$H$3:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>не определено</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$H$5:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5E71-43B1-9FFA-5FF2C7B8AC49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$I$3:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>неодушевленный конкретный объект</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$I$5:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5E71-43B1-9FFA-5FF2C7B8AC49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$J$3:$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>отсутствует</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$J$5:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5E71-43B1-9FFA-5FF2C7B8AC49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1119804352"/>
-        <c:axId val="1119801440"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1119804352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1119801440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1119801440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1119804352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13469,6 +13366,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1671637</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -13500,7 +13432,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13535,7 +13467,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13570,7 +13502,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13584,41 +13516,6 @@
       <xdr:colOff>185737</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13795,51 +13692,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Maria" refreshedDate="43018.911965856481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="51">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E1048576" sheet="Лист1"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="PREFIX" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="пере"/>
-        <s v="с"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="TENSE" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="PERSONNUMBER" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="PARTICIPANT1" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="PARTICIPANT2" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
-        <s v="место"/>
-        <s v="абстрактный объект"/>
-        <s v="лицо"/>
-        <s v="отсутствует"/>
-        <s v="абстрактый объект"/>
-        <s v="NA"/>
-        <s v="не определено"/>
-        <s v="неодушевленный конкретный объект"/>
-        <s v="животное"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Maria" refreshedDate="43018.916482638888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="51">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AA1048576" sheet="Лист1"/>
@@ -13972,6 +13824,53 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Maria" refreshedDate="43018.942385069444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="51">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F1048576" sheet="Лист1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="PREFIX" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="пере"/>
+        <s v="с"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="TENSE" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="PERSONNUMBER" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="PARTICIPANT1" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="PARTICIPANT2" numFmtId="0">
+      <sharedItems containsBlank="1" count="9">
+        <s v="место"/>
+        <s v="абстрактный объект"/>
+        <s v="лицо"/>
+        <s v="отсутствует"/>
+        <s v="NA"/>
+        <s v="не определено"/>
+        <s v="неодушевленный конкретный объект"/>
+        <s v="животное"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PARTICIPANT3" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="51">
   <r>
@@ -14753,368 +14652,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="51">
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч., лицо не опред."/>
-    <s v="лицо"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Мн.ч,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Мн.ч,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="буд"/>
-    <s v="Мн.ч.,3л."/>
-    <s v="абстрактный объект"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Мн.ч.,лицо не опред."/>
-    <s v="NA"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="абстрактный объект"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Мн.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="буд"/>
-    <s v="Ед.ч.,1 лицо"/>
-    <s v="лицо"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="буд"/>
-    <s v="Ед.ч.,3 лицо"/>
-    <s v="лицо"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="прош"/>
-    <s v="Мн.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="абстрактный объект"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="буд"/>
-    <s v="Ед.ч.,1 лицо"/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="буд"/>
-    <s v="Мн.ч.,3 лицо"/>
-    <s v="NA"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="буд"/>
-    <s v="Ед.ч.,2 лицо"/>
-    <s v="NA"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="буд"/>
-    <s v="Ед.ч.,2 лицо"/>
-    <s v="NA"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Мн.ч.,лицо не опред."/>
-    <s v="NA"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="абстрактный объект"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="NA"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="буд"/>
-    <s v="Ед.ч.,2 лицо"/>
-    <s v="NA"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="буд"/>
-    <s v="Ед.ч.,2 лицо"/>
-    <s v="NA"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Мн.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Мн.ч.,лицо не опред."/>
-    <s v="абстрактный объект"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="буд"/>
-    <s v="Ед.ч.,1 лицо"/>
-    <s v="лицо"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Ед.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Мн.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="прош"/>
-    <s v="Мн.ч.,лицо не опред."/>
-    <s v="лицо"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="51">
   <r>
     <x v="0"/>
@@ -16598,7 +16135,509 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="51">
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч., лицо не опред."/>
+    <s v="лицо"/>
+    <x v="0"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Мн.ч,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Мн.ч,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="2"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="3"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="абстрактный объект"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="место"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="0"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="буд"/>
+    <s v="Мн.ч.,3л."/>
+    <s v="абстрактный объект"/>
+    <x v="4"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Мн.ч.,лицо не опред."/>
+    <s v="NA"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="абстрактный объект"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="5"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Мн.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="6"/>
+    <s v="неодушевленный конкретный объект"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="5"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="буд"/>
+    <s v="Ед.ч.,1 лицо"/>
+    <s v="лицо"/>
+    <x v="5"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="5"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="5"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="буд"/>
+    <s v="Ед.ч.,3 лицо"/>
+    <s v="лицо"/>
+    <x v="6"/>
+    <s v="неодушевленный конкретный объект"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="прош"/>
+    <s v="Мн.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="5"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="абстрактный объект"/>
+    <x v="5"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="буд"/>
+    <s v="Ед.ч.,1 лицо"/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="6"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="7"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="буд"/>
+    <s v="Мн.ч.,3 лицо"/>
+    <s v="NA"/>
+    <x v="4"/>
+    <s v="абстрактный объект"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="4"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="буд"/>
+    <s v="Ед.ч.,2 лицо"/>
+    <s v="NA"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="буд"/>
+    <s v="Ед.ч.,2 лицо"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Мн.ч.,лицо не опред."/>
+    <s v="NA"/>
+    <x v="6"/>
+    <s v="неодушевленный конкретный объект"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="абстрактный объект"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="NA"/>
+    <x v="6"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="буд"/>
+    <s v="Ед.ч.,2 лицо"/>
+    <s v="NA"/>
+    <x v="4"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="буд"/>
+    <s v="Ед.ч.,2 лицо"/>
+    <s v="NA"/>
+    <x v="7"/>
+    <s v="лицо"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="2"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="2"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="5"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Мн.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="4"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="4"/>
+    <s v="абстрактный объект"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Мн.ч.,лицо не опред."/>
+    <s v="абстрактный объект"/>
+    <x v="1"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="5"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="буд"/>
+    <s v="Ед.ч.,1 лицо"/>
+    <s v="лицо"/>
+    <x v="2"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Ед.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="4"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Мн.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="4"/>
+    <s v="NA"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="прош"/>
+    <s v="Мн.ч.,лицо не опред."/>
+    <s v="лицо"/>
+    <x v="1"/>
+    <s v="абстрактный объект"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю PARTICIPANT2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
@@ -16685,7 +16724,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -16766,7 +16805,7 @@
   <dataFields count="1">
     <dataField name="Количество по полю PREFIX" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="10">
+  <chartFormats count="9">
     <chartFormat chart="2" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -16875,18 +16914,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -16897,7 +16924,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:M8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="3">
@@ -16994,12 +17021,138 @@
   <dataFields count="1">
     <dataField name="Количество по полю PERSONNUMBER" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="9">
+    <chartFormat chart="1" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
     <chartFormat chart="1" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="3">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -17014,7 +17167,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -17107,208 +17260,6 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица19" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="11">
-        <item x="5"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю PARTICIPANT2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="17" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -17814,10 +17765,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F4" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H4" t="s">
+        <v>592</v>
+      </c>
+      <c r="I4" t="s">
+        <v>589</v>
+      </c>
+      <c r="J4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="10">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>9</v>
+      </c>
+      <c r="H7" s="10">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="X1:X1048576 A1:A1048576"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17845,7 +17955,7 @@
         <v>587</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -17928,11 +18038,11 @@
         <v>588</v>
       </c>
       <c r="F2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G33" ca="1" si="0">RAND()*100</f>
-        <v>33.551997306097149</v>
+        <v>86.988229957828437</v>
       </c>
       <c r="H2" t="s">
         <v>569</v>
@@ -18010,14 +18120,14 @@
         <v>586</v>
       </c>
       <c r="E3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62.734257619071499</v>
+        <v>60.776777314070095</v>
       </c>
       <c r="H3" t="s">
         <v>37</v>
@@ -18095,14 +18205,14 @@
         <v>586</v>
       </c>
       <c r="E4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.131211873975092</v>
+        <v>33.479590991730788</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
@@ -18183,11 +18293,11 @@
         <v>586</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.143307780491035</v>
+        <v>42.842405673870374</v>
       </c>
       <c r="H5" t="s">
         <v>68</v>
@@ -18265,14 +18375,14 @@
         <v>586</v>
       </c>
       <c r="E6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.332362665882741</v>
+        <v>35.351414684638769</v>
       </c>
       <c r="H6" t="s">
         <v>81</v>
@@ -18353,11 +18463,11 @@
         <v>589</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.167747911971234</v>
+        <v>58.767272697173347</v>
       </c>
       <c r="H7" t="s">
         <v>94</v>
@@ -18435,14 +18545,14 @@
         <v>586</v>
       </c>
       <c r="E8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75.234994801997516</v>
+        <v>70.491429313492333</v>
       </c>
       <c r="H8" t="s">
         <v>106</v>
@@ -18523,11 +18633,11 @@
         <v>590</v>
       </c>
       <c r="F9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.576076415682238</v>
+        <v>18.600091979472143</v>
       </c>
       <c r="H9" t="s">
         <v>118</v>
@@ -18612,7 +18722,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>98.100666069231323</v>
+        <v>25.575443780317364</v>
       </c>
       <c r="H10" t="s">
         <v>129</v>
@@ -18693,11 +18803,11 @@
         <v>588</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36.071306288833526</v>
+        <v>89.721325628681683</v>
       </c>
       <c r="H11" t="s">
         <v>139</v>
@@ -18772,17 +18882,17 @@
         <v>576</v>
       </c>
       <c r="D12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.233778349944487</v>
+        <v>4.0153817072138391</v>
       </c>
       <c r="H12" t="s">
         <v>149</v>
@@ -18857,17 +18967,17 @@
         <v>580</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E13" t="s">
         <v>590</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.97081378246115</v>
+        <v>57.47357409976501</v>
       </c>
       <c r="H13" t="s">
         <v>163</v>
@@ -18942,17 +19052,17 @@
         <v>578</v>
       </c>
       <c r="D14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>79.936624839549737</v>
+        <v>7.3001740024428496</v>
       </c>
       <c r="H14" t="s">
         <v>175</v>
@@ -19030,14 +19140,14 @@
         <v>586</v>
       </c>
       <c r="E15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63.089159736964696</v>
+        <v>73.68682727415991</v>
       </c>
       <c r="H15" t="s">
         <v>187</v>
@@ -19115,14 +19225,14 @@
         <v>586</v>
       </c>
       <c r="E16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>98.503340450005169</v>
+        <v>43.989480976479165</v>
       </c>
       <c r="H16" t="s">
         <v>196</v>
@@ -19200,14 +19310,14 @@
         <v>586</v>
       </c>
       <c r="E17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.005115265269161</v>
+        <v>73.362004476743124</v>
       </c>
       <c r="H17" t="s">
         <v>206</v>
@@ -19285,14 +19395,14 @@
         <v>586</v>
       </c>
       <c r="E18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>47.494922025006694</v>
+        <v>5.7242876578236785</v>
       </c>
       <c r="H18" t="s">
         <v>215</v>
@@ -19370,14 +19480,14 @@
         <v>586</v>
       </c>
       <c r="E19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3191571083042186</v>
+        <v>27.942452950803098</v>
       </c>
       <c r="H19" t="s">
         <v>226</v>
@@ -19455,14 +19565,14 @@
         <v>586</v>
       </c>
       <c r="E20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.974164251880467</v>
+        <v>94.32382920943077</v>
       </c>
       <c r="H20" t="s">
         <v>237</v>
@@ -19543,11 +19653,11 @@
         <v>590</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>87.898856568476219</v>
+        <v>37.78811510580946</v>
       </c>
       <c r="H21" t="s">
         <v>248</v>
@@ -19625,14 +19735,14 @@
         <v>586</v>
       </c>
       <c r="E22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44.602821007891876</v>
+        <v>25.560367014229215</v>
       </c>
       <c r="H22" t="s">
         <v>258</v>
@@ -19710,14 +19820,14 @@
         <v>586</v>
       </c>
       <c r="E23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.794310399496876</v>
+        <v>83.964044504782748</v>
       </c>
       <c r="H23" t="s">
         <v>266</v>
@@ -19795,14 +19905,14 @@
         <v>586</v>
       </c>
       <c r="E24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>46.265157022443518</v>
+        <v>63.290166433340268</v>
       </c>
       <c r="H24" t="s">
         <v>276</v>
@@ -19880,14 +19990,14 @@
         <v>586</v>
       </c>
       <c r="E25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31.124653136726344</v>
+        <v>47.402992371991992</v>
       </c>
       <c r="H25" t="s">
         <v>286</v>
@@ -19965,14 +20075,14 @@
         <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>97.874220049039991</v>
+        <v>96.673554036111199</v>
       </c>
       <c r="H26" t="s">
         <v>299</v>
@@ -20047,17 +20157,17 @@
         <v>578</v>
       </c>
       <c r="D27" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" t="s">
         <v>591</v>
       </c>
-      <c r="E27" t="s">
-        <v>592</v>
-      </c>
       <c r="F27" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>74.560360248006432</v>
+        <v>44.411071618500088</v>
       </c>
       <c r="H27" t="s">
         <v>310</v>
@@ -20135,14 +20245,14 @@
         <v>586</v>
       </c>
       <c r="E28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>83.393398377225012</v>
+        <v>48.053096386220538</v>
       </c>
       <c r="H28" t="s">
         <v>320</v>
@@ -20220,14 +20330,14 @@
         <v>586</v>
       </c>
       <c r="E29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57.683856363548195</v>
+        <v>16.588407847279719</v>
       </c>
       <c r="H29" t="s">
         <v>331</v>
@@ -20305,14 +20415,14 @@
         <v>586</v>
       </c>
       <c r="E30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>99.419960987502378</v>
+        <v>8.2394125832081286</v>
       </c>
       <c r="H30" t="s">
         <v>343</v>
@@ -20390,14 +20500,14 @@
         <v>586</v>
       </c>
       <c r="E31" t="s">
+        <v>593</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>53.652673414833487</v>
+        <v>69.692984529743995</v>
       </c>
       <c r="H31" t="s">
         <v>353</v>
@@ -20472,17 +20582,17 @@
         <v>583</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57.605136012882049</v>
+        <v>49.171823644665061</v>
       </c>
       <c r="H32" t="s">
         <v>363</v>
@@ -20560,14 +20670,14 @@
         <v>586</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64.42220829334147</v>
+        <v>64.336715888598903</v>
       </c>
       <c r="H33" t="s">
         <v>375</v>
@@ -20642,17 +20752,17 @@
         <v>584</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" ref="G34:G51" ca="1" si="2">RAND()*100</f>
-        <v>72.753782955641952</v>
+        <v>96.380557522219632</v>
       </c>
       <c r="H34" t="s">
         <v>387</v>
@@ -20676,7 +20786,7 @@
         <v>391</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" ref="O34:O65" si="3">IF(P34=P35,"",1)</f>
+        <f t="shared" ref="O34:O51" si="3">IF(P34=P35,"",1)</f>
         <v>1</v>
       </c>
       <c r="P34" s="5" t="s">
@@ -20727,17 +20837,17 @@
         <v>584</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E35" t="s">
         <v>586</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>35.950785340558568</v>
+        <v>40.356426166393376</v>
       </c>
       <c r="H35" t="s">
         <v>397</v>
@@ -20812,17 +20922,17 @@
         <v>580</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>34.634213960903736</v>
+        <v>35.404364731624305</v>
       </c>
       <c r="H36" t="s">
         <v>405</v>
@@ -20897,17 +21007,17 @@
         <v>578</v>
       </c>
       <c r="D37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>74.576934159345868</v>
+        <v>71.623255651721891</v>
       </c>
       <c r="H37" t="s">
         <v>418</v>
@@ -20982,17 +21092,17 @@
         <v>578</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.404020738659305</v>
+        <v>39.283354709323547</v>
       </c>
       <c r="H38" t="s">
         <v>428</v>
@@ -21067,17 +21177,17 @@
         <v>584</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>20.877494871199488</v>
+        <v>54.523574843734259</v>
       </c>
       <c r="H39" t="s">
         <v>437</v>
@@ -21152,17 +21262,17 @@
         <v>584</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E40" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>586</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>94.112988119012314</v>
+        <v>5.8566319716665705</v>
       </c>
       <c r="H40" t="s">
         <v>449</v>
@@ -21243,11 +21353,11 @@
         <v>586</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.45097706991978</v>
+        <v>31.953502931460786</v>
       </c>
       <c r="H41" t="s">
         <v>457</v>
@@ -21328,11 +21438,11 @@
         <v>586</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>63.657817470919831</v>
+        <v>80.254674950895549</v>
       </c>
       <c r="H42" t="s">
         <v>471</v>
@@ -21410,14 +21520,14 @@
         <v>586</v>
       </c>
       <c r="E43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>81.729697635906376</v>
+        <v>65.886213245577778</v>
       </c>
       <c r="H43" t="s">
         <v>478</v>
@@ -21495,14 +21605,14 @@
         <v>586</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>90.136611563165786</v>
+        <v>54.805419477362726</v>
       </c>
       <c r="H44" t="s">
         <v>485</v>
@@ -21580,14 +21690,14 @@
         <v>586</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F45" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>22.346157167220269</v>
+        <v>22.337291690491945</v>
       </c>
       <c r="H45" t="s">
         <v>493</v>
@@ -21662,17 +21772,17 @@
         <v>580</v>
       </c>
       <c r="D46" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E46" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44.093073995310561</v>
+        <v>71.114997037828644</v>
       </c>
       <c r="H46" t="s">
         <v>503</v>
@@ -21750,14 +21860,14 @@
         <v>586</v>
       </c>
       <c r="E47" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>94.336562709810153</v>
+        <v>10.665308884542613</v>
       </c>
       <c r="H47" t="s">
         <v>514</v>
@@ -21838,11 +21948,11 @@
         <v>586</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>99.123973211090615</v>
+        <v>46.350891634768445</v>
       </c>
       <c r="H48" t="s">
         <v>525</v>
@@ -21920,14 +22030,14 @@
         <v>586</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9019005264204676</v>
+        <v>15.577311238469138</v>
       </c>
       <c r="H49" t="s">
         <v>534</v>
@@ -22005,14 +22115,14 @@
         <v>586</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.309947465504884</v>
+        <v>52.459771032249172</v>
       </c>
       <c r="H50" t="s">
         <v>546</v>
@@ -22090,14 +22200,14 @@
         <v>586</v>
       </c>
       <c r="E51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>74.297002379251808</v>
+        <v>57.894444481941953</v>
       </c>
       <c r="H51" t="s">
         <v>556</v>
@@ -22166,11 +22276,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -22189,15 +22299,15 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B5" t="s">
         <v>570</v>
@@ -22206,7 +22316,7 @@
         <v>571</v>
       </c>
       <c r="D5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -22239,7 +22349,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B8" s="10">
         <v>25</v>
@@ -22257,11 +22367,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -22281,15 +22391,15 @@
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B4" t="s">
         <v>577</v>
@@ -22319,7 +22429,7 @@
         <v>580</v>
       </c>
       <c r="K4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -22382,7 +22492,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
@@ -22421,7 +22531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M8"/>
   <sheetViews>
@@ -22454,10 +22564,10 @@
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -22465,21 +22575,21 @@
         <v>574</v>
       </c>
       <c r="G4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H4" t="s">
         <v>573</v>
       </c>
       <c r="L4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B5" t="s">
         <v>581</v>
@@ -22581,7 +22691,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B8" s="10">
         <v>3</v>
@@ -22626,7 +22736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D8"/>
   <sheetViews>
@@ -22645,15 +22755,15 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B4" t="s">
         <v>570</v>
@@ -22662,12 +22772,12 @@
         <v>571</v>
       </c>
       <c r="D4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -22681,7 +22791,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
@@ -22709,7 +22819,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B8" s="10">
         <v>25</v>
@@ -22718,175 +22828,6 @@
         <v>25</v>
       </c>
       <c r="D8" s="10">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="B4" t="s">
-        <v>595</v>
-      </c>
-      <c r="C4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D4" t="s">
-        <v>590</v>
-      </c>
-      <c r="E4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F4" t="s">
-        <v>586</v>
-      </c>
-      <c r="G4" t="s">
-        <v>588</v>
-      </c>
-      <c r="H4" t="s">
-        <v>592</v>
-      </c>
-      <c r="I4" t="s">
-        <v>593</v>
-      </c>
-      <c r="J4" t="s">
-        <v>589</v>
-      </c>
-      <c r="K4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10">
-        <v>6</v>
-      </c>
-      <c r="I5" s="10">
-        <v>2</v>
-      </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B6" s="10">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10">
-        <v>3</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="B7" s="10">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10">
-        <v>14</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10">
-        <v>9</v>
-      </c>
-      <c r="I7" s="10">
-        <v>5</v>
-      </c>
-      <c r="J7" s="10">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
         <v>50</v>
       </c>
     </row>
@@ -22921,15 +22862,15 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B4" t="s">
         <v>570</v>
@@ -22938,7 +22879,7 @@
         <v>571</v>
       </c>
       <c r="D4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -23325,7 +23266,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B36" s="10">
         <v>25</v>

--- a/Day04_hw/спутатьперепутать.xlsx
+++ b/Day04_hw/спутатьперепутать.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
-    <sheet name="3.2b PREFIX PARTICIPANT2" sheetId="11" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="3.2b PREFIX PARTICIPANT2" sheetId="11" r:id="rId2"/>
     <sheet name="3.1.a PREFIX TENSE" sheetId="2" r:id="rId3"/>
     <sheet name="3.1b PREFIX PERSONNUM" sheetId="4" r:id="rId4"/>
     <sheet name="3.1c PREFIX TENSE PERSONNUMBER" sheetId="5" r:id="rId5"/>
@@ -25,8 +25,8 @@
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
     <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="4" r:id="rId11"/>
-    <pivotCache cacheId="8" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="4" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3316,6 +3316,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3341,6 +3344,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3366,6 +3372,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3391,6 +3400,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3416,6 +3428,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3441,6 +3456,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3466,6 +3484,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3491,6 +3512,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3507,6 +3531,230 @@
             <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -4741,7 +4989,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6181,7 +6428,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7913,7 +8159,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8432,7 +8677,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10021,7 +10265,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16549,7 +16792,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -16628,6 +16871,104 @@
   <dataFields count="1">
     <dataField name="Количество по полю PARTICIPANT2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -17275,7 +17616,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица21" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица21" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField axis="axisCol" showAll="0">
@@ -17765,9 +18106,4363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="6" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G33" ca="1" si="0">RAND()*100</f>
+        <v>90.927954714222466</v>
+      </c>
+      <c r="H2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" ref="O2:O33" si="1">IF(P2=P3,"",1)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.622612662953181</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80640166412359049</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>53.588458115864888</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E6" t="s">
+        <v>590</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.383850840296731</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="5">
+        <v>1954</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.18348540926047</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E8" t="s">
+        <v>590</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.072030375993474</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" t="s">
+        <v>586</v>
+      </c>
+      <c r="E9" t="s">
+        <v>590</v>
+      </c>
+      <c r="F9" t="s">
+        <v>590</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>62.047031880756165</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D10" t="s">
+        <v>586</v>
+      </c>
+      <c r="E10" t="s">
+        <v>590</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.520419865509862</v>
+      </c>
+      <c r="H10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B11" t="s">
+        <v>573</v>
+      </c>
+      <c r="C11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45.661835716554378</v>
+      </c>
+      <c r="H11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C12" t="s">
+        <v>576</v>
+      </c>
+      <c r="D12" t="s">
+        <v>590</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.951073392611757</v>
+      </c>
+      <c r="H12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>570</v>
+      </c>
+      <c r="B13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E13" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>33.490490738672719</v>
+      </c>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B14" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" t="s">
+        <v>578</v>
+      </c>
+      <c r="D14" t="s">
+        <v>590</v>
+      </c>
+      <c r="E14" t="s">
+        <v>590</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>84.722959084850388</v>
+      </c>
+      <c r="H14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C15" t="s">
+        <v>578</v>
+      </c>
+      <c r="D15" t="s">
+        <v>586</v>
+      </c>
+      <c r="E15" t="s">
+        <v>591</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>55.034553759962357</v>
+      </c>
+      <c r="H15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>570</v>
+      </c>
+      <c r="B16" t="s">
+        <v>573</v>
+      </c>
+      <c r="C16" t="s">
+        <v>580</v>
+      </c>
+      <c r="D16" t="s">
+        <v>586</v>
+      </c>
+      <c r="E16" t="s">
+        <v>592</v>
+      </c>
+      <c r="F16" t="s">
+        <v>592</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>81.418551892057039</v>
+      </c>
+      <c r="H16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>570</v>
+      </c>
+      <c r="B17" t="s">
+        <v>573</v>
+      </c>
+      <c r="C17" t="s">
+        <v>578</v>
+      </c>
+      <c r="D17" t="s">
+        <v>586</v>
+      </c>
+      <c r="E17" t="s">
+        <v>591</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>75.792946518499576</v>
+      </c>
+      <c r="H17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" t="s">
+        <v>573</v>
+      </c>
+      <c r="C18" t="s">
+        <v>578</v>
+      </c>
+      <c r="D18" t="s">
+        <v>586</v>
+      </c>
+      <c r="E18" t="s">
+        <v>590</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>88.694383738695521</v>
+      </c>
+      <c r="H18" t="s">
+        <v>215</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>570</v>
+      </c>
+      <c r="B19" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" t="s">
+        <v>581</v>
+      </c>
+      <c r="D19" t="s">
+        <v>586</v>
+      </c>
+      <c r="E19" t="s">
+        <v>591</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.875936475048348</v>
+      </c>
+      <c r="H19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>570</v>
+      </c>
+      <c r="B20" t="s">
+        <v>573</v>
+      </c>
+      <c r="C20" t="s">
+        <v>578</v>
+      </c>
+      <c r="D20" t="s">
+        <v>586</v>
+      </c>
+      <c r="E20" t="s">
+        <v>591</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.621453966004772</v>
+      </c>
+      <c r="H20" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>570</v>
+      </c>
+      <c r="B21" t="s">
+        <v>573</v>
+      </c>
+      <c r="C21" t="s">
+        <v>578</v>
+      </c>
+      <c r="D21" t="s">
+        <v>586</v>
+      </c>
+      <c r="E21" t="s">
+        <v>590</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>68.930192238916547</v>
+      </c>
+      <c r="H21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>570</v>
+      </c>
+      <c r="B22" t="s">
+        <v>573</v>
+      </c>
+      <c r="C22" t="s">
+        <v>578</v>
+      </c>
+      <c r="D22" t="s">
+        <v>586</v>
+      </c>
+      <c r="E22" t="s">
+        <v>590</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.063984953368969</v>
+      </c>
+      <c r="H22" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" t="s">
+        <v>573</v>
+      </c>
+      <c r="C23" t="s">
+        <v>578</v>
+      </c>
+      <c r="D23" t="s">
+        <v>586</v>
+      </c>
+      <c r="E23" t="s">
+        <v>591</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>48.276760494250667</v>
+      </c>
+      <c r="H23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>570</v>
+      </c>
+      <c r="B24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C24" t="s">
+        <v>578</v>
+      </c>
+      <c r="D24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E24" t="s">
+        <v>590</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>92.993959465000103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>570</v>
+      </c>
+      <c r="B25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" t="s">
+        <v>582</v>
+      </c>
+      <c r="D25" t="s">
+        <v>586</v>
+      </c>
+      <c r="E25" t="s">
+        <v>592</v>
+      </c>
+      <c r="F25" t="s">
+        <v>592</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>93.682908480171506</v>
+      </c>
+      <c r="H25" t="s">
+        <v>286</v>
+      </c>
+      <c r="I25" t="s">
+        <v>287</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>570</v>
+      </c>
+      <c r="B26" t="s">
+        <v>573</v>
+      </c>
+      <c r="C26" t="s">
+        <v>580</v>
+      </c>
+      <c r="D26" t="s">
+        <v>586</v>
+      </c>
+      <c r="E26" t="s">
+        <v>591</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3753803255584458</v>
+      </c>
+      <c r="H26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>571</v>
+      </c>
+      <c r="B27" t="s">
+        <v>573</v>
+      </c>
+      <c r="C27" t="s">
+        <v>578</v>
+      </c>
+      <c r="D27" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" t="s">
+        <v>591</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>55.668313748722333</v>
+      </c>
+      <c r="H27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>571</v>
+      </c>
+      <c r="B28" t="s">
+        <v>573</v>
+      </c>
+      <c r="C28" t="s">
+        <v>578</v>
+      </c>
+      <c r="D28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E28" t="s">
+        <v>590</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>89.646317808562813</v>
+      </c>
+      <c r="H28" t="s">
+        <v>320</v>
+      </c>
+      <c r="I28" t="s">
+        <v>311</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>571</v>
+      </c>
+      <c r="B29" t="s">
+        <v>574</v>
+      </c>
+      <c r="C29" t="s">
+        <v>581</v>
+      </c>
+      <c r="D29" t="s">
+        <v>586</v>
+      </c>
+      <c r="E29" t="s">
+        <v>590</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>78.074072086541861</v>
+      </c>
+      <c r="H29" t="s">
+        <v>331</v>
+      </c>
+      <c r="I29" t="s">
+        <v>332</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>571</v>
+      </c>
+      <c r="B30" t="s">
+        <v>573</v>
+      </c>
+      <c r="C30" t="s">
+        <v>578</v>
+      </c>
+      <c r="D30" t="s">
+        <v>586</v>
+      </c>
+      <c r="E30" t="s">
+        <v>592</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>48.951946737419149</v>
+      </c>
+      <c r="H30" t="s">
+        <v>343</v>
+      </c>
+      <c r="I30" t="s">
+        <v>311</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>571</v>
+      </c>
+      <c r="B31" t="s">
+        <v>573</v>
+      </c>
+      <c r="C31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D31" t="s">
+        <v>586</v>
+      </c>
+      <c r="E31" t="s">
+        <v>593</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>97.988161453625494</v>
+      </c>
+      <c r="H31" t="s">
+        <v>353</v>
+      </c>
+      <c r="I31" t="s">
+        <v>311</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>571</v>
+      </c>
+      <c r="B32" t="s">
+        <v>574</v>
+      </c>
+      <c r="C32" t="s">
+        <v>583</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>97.226652510375999</v>
+      </c>
+      <c r="H32" t="s">
+        <v>363</v>
+      </c>
+      <c r="I32" t="s">
+        <v>364</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>571</v>
+      </c>
+      <c r="B33" t="s">
+        <v>573</v>
+      </c>
+      <c r="C33" t="s">
+        <v>578</v>
+      </c>
+      <c r="D33" t="s">
+        <v>586</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>91.450487676450138</v>
+      </c>
+      <c r="H33" t="s">
+        <v>375</v>
+      </c>
+      <c r="I33" t="s">
+        <v>311</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>571</v>
+      </c>
+      <c r="B34" t="s">
+        <v>574</v>
+      </c>
+      <c r="C34" t="s">
+        <v>584</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E34" t="s">
+        <v>590</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:G51" ca="1" si="2">RAND()*100</f>
+        <v>17.256312627145821</v>
+      </c>
+      <c r="H34" t="s">
+        <v>387</v>
+      </c>
+      <c r="I34" t="s">
+        <v>388</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" ref="O34:O51" si="3">IF(P34=P35,"",1)</f>
+        <v>1</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>571</v>
+      </c>
+      <c r="B35" t="s">
+        <v>574</v>
+      </c>
+      <c r="C35" t="s">
+        <v>584</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E35" t="s">
+        <v>586</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.840536021153616</v>
+      </c>
+      <c r="H35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>571</v>
+      </c>
+      <c r="B36" t="s">
+        <v>573</v>
+      </c>
+      <c r="C36" t="s">
+        <v>580</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E36" t="s">
+        <v>592</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.10065592985346</v>
+      </c>
+      <c r="H36" t="s">
+        <v>405</v>
+      </c>
+      <c r="I36" t="s">
+        <v>406</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>571</v>
+      </c>
+      <c r="B37" t="s">
+        <v>573</v>
+      </c>
+      <c r="C37" t="s">
+        <v>578</v>
+      </c>
+      <c r="D37" t="s">
+        <v>590</v>
+      </c>
+      <c r="E37" t="s">
+        <v>590</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.372620512358115</v>
+      </c>
+      <c r="H37" t="s">
+        <v>418</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>571</v>
+      </c>
+      <c r="B38" t="s">
+        <v>573</v>
+      </c>
+      <c r="C38" t="s">
+        <v>578</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E38" t="s">
+        <v>592</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.604537161515797</v>
+      </c>
+      <c r="H38" t="s">
+        <v>428</v>
+      </c>
+      <c r="I38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B39" t="s">
+        <v>574</v>
+      </c>
+      <c r="C39" t="s">
+        <v>584</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.447147669419426</v>
+      </c>
+      <c r="H39" t="s">
+        <v>437</v>
+      </c>
+      <c r="I39" t="s">
+        <v>388</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>571</v>
+      </c>
+      <c r="B40" t="s">
+        <v>574</v>
+      </c>
+      <c r="C40" t="s">
+        <v>584</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E40" t="s">
+        <v>593</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>78.697250556849923</v>
+      </c>
+      <c r="H40" t="s">
+        <v>449</v>
+      </c>
+      <c r="I40" t="s">
+        <v>388</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>571</v>
+      </c>
+      <c r="B41" t="s">
+        <v>573</v>
+      </c>
+      <c r="C41" t="s">
+        <v>578</v>
+      </c>
+      <c r="D41" t="s">
+        <v>586</v>
+      </c>
+      <c r="E41" t="s">
+        <v>586</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>55.711397192473157</v>
+      </c>
+      <c r="H41" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41" t="s">
+        <v>458</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>571</v>
+      </c>
+      <c r="B42" t="s">
+        <v>573</v>
+      </c>
+      <c r="C42" t="s">
+        <v>578</v>
+      </c>
+      <c r="D42" t="s">
+        <v>586</v>
+      </c>
+      <c r="E42" t="s">
+        <v>586</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>48.307263511415968</v>
+      </c>
+      <c r="H42" t="s">
+        <v>471</v>
+      </c>
+      <c r="I42" t="s">
+        <v>311</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA42" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>571</v>
+      </c>
+      <c r="B43" t="s">
+        <v>573</v>
+      </c>
+      <c r="C43" t="s">
+        <v>578</v>
+      </c>
+      <c r="D43" t="s">
+        <v>586</v>
+      </c>
+      <c r="E43" t="s">
+        <v>591</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>90.688167424675399</v>
+      </c>
+      <c r="H43" t="s">
+        <v>478</v>
+      </c>
+      <c r="I43" t="s">
+        <v>311</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>571</v>
+      </c>
+      <c r="B44" t="s">
+        <v>573</v>
+      </c>
+      <c r="C44" t="s">
+        <v>580</v>
+      </c>
+      <c r="D44" t="s">
+        <v>586</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.1776175426417996</v>
+      </c>
+      <c r="H44" t="s">
+        <v>485</v>
+      </c>
+      <c r="I44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA44" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>571</v>
+      </c>
+      <c r="B45" t="s">
+        <v>573</v>
+      </c>
+      <c r="C45" t="s">
+        <v>578</v>
+      </c>
+      <c r="D45" t="s">
+        <v>586</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F45" t="s">
+        <v>590</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>54.664162541726128</v>
+      </c>
+      <c r="H45" t="s">
+        <v>493</v>
+      </c>
+      <c r="I45" t="s">
+        <v>311</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>571</v>
+      </c>
+      <c r="B46" t="s">
+        <v>573</v>
+      </c>
+      <c r="C46" t="s">
+        <v>580</v>
+      </c>
+      <c r="D46" t="s">
+        <v>590</v>
+      </c>
+      <c r="E46" t="s">
+        <v>590</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>19.263857653311909</v>
+      </c>
+      <c r="H46" t="s">
+        <v>503</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>571</v>
+      </c>
+      <c r="B47" t="s">
+        <v>573</v>
+      </c>
+      <c r="C47" t="s">
+        <v>578</v>
+      </c>
+      <c r="D47" t="s">
+        <v>586</v>
+      </c>
+      <c r="E47" t="s">
+        <v>591</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>74.910783852877955</v>
+      </c>
+      <c r="H47" t="s">
+        <v>514</v>
+      </c>
+      <c r="I47" t="s">
+        <v>311</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>571</v>
+      </c>
+      <c r="B48" t="s">
+        <v>574</v>
+      </c>
+      <c r="C48" t="s">
+        <v>581</v>
+      </c>
+      <c r="D48" t="s">
+        <v>586</v>
+      </c>
+      <c r="E48" t="s">
+        <v>586</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>93.013666323623795</v>
+      </c>
+      <c r="H48" t="s">
+        <v>525</v>
+      </c>
+      <c r="I48" t="s">
+        <v>332</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA48" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>571</v>
+      </c>
+      <c r="B49" t="s">
+        <v>573</v>
+      </c>
+      <c r="C49" t="s">
+        <v>578</v>
+      </c>
+      <c r="D49" t="s">
+        <v>586</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1147570847989847</v>
+      </c>
+      <c r="H49" t="s">
+        <v>534</v>
+      </c>
+      <c r="I49" t="s">
+        <v>458</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>571</v>
+      </c>
+      <c r="B50" t="s">
+        <v>573</v>
+      </c>
+      <c r="C50" t="s">
+        <v>580</v>
+      </c>
+      <c r="D50" t="s">
+        <v>586</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>77.080067120092266</v>
+      </c>
+      <c r="H50" t="s">
+        <v>546</v>
+      </c>
+      <c r="I50" t="s">
+        <v>406</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>571</v>
+      </c>
+      <c r="B51" t="s">
+        <v>573</v>
+      </c>
+      <c r="C51" t="s">
+        <v>580</v>
+      </c>
+      <c r="D51" t="s">
+        <v>586</v>
+      </c>
+      <c r="E51" t="s">
+        <v>590</v>
+      </c>
+      <c r="F51" t="s">
+        <v>590</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2620675461871684</v>
+      </c>
+      <c r="H51" t="s">
+        <v>556</v>
+      </c>
+      <c r="I51" t="s">
+        <v>406</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -17919,4360 +22614,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="6" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
-    <col min="27" max="27" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G33" ca="1" si="0">RAND()*100</f>
-        <v>86.988229957828437</v>
-      </c>
-      <c r="H2" t="s">
-        <v>569</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="3">
-        <f t="shared" ref="O2:O33" si="1">IF(P2=P3,"",1)</f>
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B3" t="s">
-        <v>573</v>
-      </c>
-      <c r="C3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E3" t="s">
-        <v>590</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>60.776777314070095</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>570</v>
-      </c>
-      <c r="B4" t="s">
-        <v>573</v>
-      </c>
-      <c r="C4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D4" t="s">
-        <v>586</v>
-      </c>
-      <c r="E4" t="s">
-        <v>590</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>33.479590991730788</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C5" t="s">
-        <v>579</v>
-      </c>
-      <c r="D5" t="s">
-        <v>586</v>
-      </c>
-      <c r="E5" t="s">
-        <v>586</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>42.842405673870374</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D6" t="s">
-        <v>586</v>
-      </c>
-      <c r="E6" t="s">
-        <v>590</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>35.351414684638769</v>
-      </c>
-      <c r="H6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" s="5">
-        <v>1954</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B7" t="s">
-        <v>573</v>
-      </c>
-      <c r="C7" t="s">
-        <v>578</v>
-      </c>
-      <c r="D7" t="s">
-        <v>586</v>
-      </c>
-      <c r="E7" t="s">
-        <v>589</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>58.767272697173347</v>
-      </c>
-      <c r="H7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>570</v>
-      </c>
-      <c r="B8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D8" t="s">
-        <v>586</v>
-      </c>
-      <c r="E8" t="s">
-        <v>590</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>70.491429313492333</v>
-      </c>
-      <c r="H8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B9" t="s">
-        <v>573</v>
-      </c>
-      <c r="C9" t="s">
-        <v>578</v>
-      </c>
-      <c r="D9" t="s">
-        <v>586</v>
-      </c>
-      <c r="E9" t="s">
-        <v>590</v>
-      </c>
-      <c r="F9" t="s">
-        <v>590</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.600091979472143</v>
-      </c>
-      <c r="H9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>570</v>
-      </c>
-      <c r="B10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C10" t="s">
-        <v>578</v>
-      </c>
-      <c r="D10" t="s">
-        <v>586</v>
-      </c>
-      <c r="E10" t="s">
-        <v>590</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.575443780317364</v>
-      </c>
-      <c r="H10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>570</v>
-      </c>
-      <c r="B11" t="s">
-        <v>573</v>
-      </c>
-      <c r="C11" t="s">
-        <v>578</v>
-      </c>
-      <c r="D11" t="s">
-        <v>586</v>
-      </c>
-      <c r="E11" t="s">
-        <v>588</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>89.721325628681683</v>
-      </c>
-      <c r="H11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>570</v>
-      </c>
-      <c r="B12" t="s">
-        <v>574</v>
-      </c>
-      <c r="C12" t="s">
-        <v>576</v>
-      </c>
-      <c r="D12" t="s">
-        <v>590</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.0153817072138391</v>
-      </c>
-      <c r="H12" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA12" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>570</v>
-      </c>
-      <c r="B13" t="s">
-        <v>573</v>
-      </c>
-      <c r="C13" t="s">
-        <v>580</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E13" t="s">
-        <v>590</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.47357409976501</v>
-      </c>
-      <c r="H13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA13" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>570</v>
-      </c>
-      <c r="B14" t="s">
-        <v>573</v>
-      </c>
-      <c r="C14" t="s">
-        <v>578</v>
-      </c>
-      <c r="D14" t="s">
-        <v>590</v>
-      </c>
-      <c r="E14" t="s">
-        <v>590</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3001740024428496</v>
-      </c>
-      <c r="H14" t="s">
-        <v>175</v>
-      </c>
-      <c r="I14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA14" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>570</v>
-      </c>
-      <c r="B15" t="s">
-        <v>573</v>
-      </c>
-      <c r="C15" t="s">
-        <v>578</v>
-      </c>
-      <c r="D15" t="s">
-        <v>586</v>
-      </c>
-      <c r="E15" t="s">
-        <v>591</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>73.68682727415991</v>
-      </c>
-      <c r="H15" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>570</v>
-      </c>
-      <c r="B16" t="s">
-        <v>573</v>
-      </c>
-      <c r="C16" t="s">
-        <v>580</v>
-      </c>
-      <c r="D16" t="s">
-        <v>586</v>
-      </c>
-      <c r="E16" t="s">
-        <v>592</v>
-      </c>
-      <c r="F16" t="s">
-        <v>592</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43.989480976479165</v>
-      </c>
-      <c r="H16" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA16" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>570</v>
-      </c>
-      <c r="B17" t="s">
-        <v>573</v>
-      </c>
-      <c r="C17" t="s">
-        <v>578</v>
-      </c>
-      <c r="D17" t="s">
-        <v>586</v>
-      </c>
-      <c r="E17" t="s">
-        <v>591</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>73.362004476743124</v>
-      </c>
-      <c r="H17" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA17" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>570</v>
-      </c>
-      <c r="B18" t="s">
-        <v>573</v>
-      </c>
-      <c r="C18" t="s">
-        <v>578</v>
-      </c>
-      <c r="D18" t="s">
-        <v>586</v>
-      </c>
-      <c r="E18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7242876578236785</v>
-      </c>
-      <c r="H18" t="s">
-        <v>215</v>
-      </c>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>570</v>
-      </c>
-      <c r="B19" t="s">
-        <v>574</v>
-      </c>
-      <c r="C19" t="s">
-        <v>581</v>
-      </c>
-      <c r="D19" t="s">
-        <v>586</v>
-      </c>
-      <c r="E19" t="s">
-        <v>591</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.942452950803098</v>
-      </c>
-      <c r="H19" t="s">
-        <v>226</v>
-      </c>
-      <c r="I19" t="s">
-        <v>227</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>570</v>
-      </c>
-      <c r="B20" t="s">
-        <v>573</v>
-      </c>
-      <c r="C20" t="s">
-        <v>578</v>
-      </c>
-      <c r="D20" t="s">
-        <v>586</v>
-      </c>
-      <c r="E20" t="s">
-        <v>591</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>94.32382920943077</v>
-      </c>
-      <c r="H20" t="s">
-        <v>237</v>
-      </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X20" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA20" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>570</v>
-      </c>
-      <c r="B21" t="s">
-        <v>573</v>
-      </c>
-      <c r="C21" t="s">
-        <v>578</v>
-      </c>
-      <c r="D21" t="s">
-        <v>586</v>
-      </c>
-      <c r="E21" t="s">
-        <v>590</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>37.78811510580946</v>
-      </c>
-      <c r="H21" t="s">
-        <v>248</v>
-      </c>
-      <c r="I21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="O21" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA21" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>570</v>
-      </c>
-      <c r="B22" t="s">
-        <v>573</v>
-      </c>
-      <c r="C22" t="s">
-        <v>578</v>
-      </c>
-      <c r="D22" t="s">
-        <v>586</v>
-      </c>
-      <c r="E22" t="s">
-        <v>590</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.560367014229215</v>
-      </c>
-      <c r="H22" t="s">
-        <v>258</v>
-      </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>570</v>
-      </c>
-      <c r="B23" t="s">
-        <v>573</v>
-      </c>
-      <c r="C23" t="s">
-        <v>578</v>
-      </c>
-      <c r="D23" t="s">
-        <v>586</v>
-      </c>
-      <c r="E23" t="s">
-        <v>591</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>83.964044504782748</v>
-      </c>
-      <c r="H23" t="s">
-        <v>266</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>570</v>
-      </c>
-      <c r="B24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C24" t="s">
-        <v>578</v>
-      </c>
-      <c r="D24" t="s">
-        <v>586</v>
-      </c>
-      <c r="E24" t="s">
-        <v>590</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>63.290166433340268</v>
-      </c>
-      <c r="H24" t="s">
-        <v>276</v>
-      </c>
-      <c r="I24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W24" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA24" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>570</v>
-      </c>
-      <c r="B25" t="s">
-        <v>574</v>
-      </c>
-      <c r="C25" t="s">
-        <v>582</v>
-      </c>
-      <c r="D25" t="s">
-        <v>586</v>
-      </c>
-      <c r="E25" t="s">
-        <v>592</v>
-      </c>
-      <c r="F25" t="s">
-        <v>592</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>47.402992371991992</v>
-      </c>
-      <c r="H25" t="s">
-        <v>286</v>
-      </c>
-      <c r="I25" t="s">
-        <v>287</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA25" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>570</v>
-      </c>
-      <c r="B26" t="s">
-        <v>573</v>
-      </c>
-      <c r="C26" t="s">
-        <v>580</v>
-      </c>
-      <c r="D26" t="s">
-        <v>586</v>
-      </c>
-      <c r="E26" t="s">
-        <v>591</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>96.673554036111199</v>
-      </c>
-      <c r="H26" t="s">
-        <v>299</v>
-      </c>
-      <c r="I26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="O26" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA26" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>571</v>
-      </c>
-      <c r="B27" t="s">
-        <v>573</v>
-      </c>
-      <c r="C27" t="s">
-        <v>578</v>
-      </c>
-      <c r="D27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E27" t="s">
-        <v>591</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44.411071618500088</v>
-      </c>
-      <c r="H27" t="s">
-        <v>310</v>
-      </c>
-      <c r="I27" t="s">
-        <v>311</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="O27" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA27" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>571</v>
-      </c>
-      <c r="B28" t="s">
-        <v>573</v>
-      </c>
-      <c r="C28" t="s">
-        <v>578</v>
-      </c>
-      <c r="D28" t="s">
-        <v>586</v>
-      </c>
-      <c r="E28" t="s">
-        <v>590</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.053096386220538</v>
-      </c>
-      <c r="H28" t="s">
-        <v>320</v>
-      </c>
-      <c r="I28" t="s">
-        <v>311</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>571</v>
-      </c>
-      <c r="B29" t="s">
-        <v>574</v>
-      </c>
-      <c r="C29" t="s">
-        <v>581</v>
-      </c>
-      <c r="D29" t="s">
-        <v>586</v>
-      </c>
-      <c r="E29" t="s">
-        <v>590</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.588407847279719</v>
-      </c>
-      <c r="H29" t="s">
-        <v>331</v>
-      </c>
-      <c r="I29" t="s">
-        <v>332</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="O29" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="X29" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>571</v>
-      </c>
-      <c r="B30" t="s">
-        <v>573</v>
-      </c>
-      <c r="C30" t="s">
-        <v>578</v>
-      </c>
-      <c r="D30" t="s">
-        <v>586</v>
-      </c>
-      <c r="E30" t="s">
-        <v>592</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2394125832081286</v>
-      </c>
-      <c r="H30" t="s">
-        <v>343</v>
-      </c>
-      <c r="I30" t="s">
-        <v>311</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="O30" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA30" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>571</v>
-      </c>
-      <c r="B31" t="s">
-        <v>573</v>
-      </c>
-      <c r="C31" t="s">
-        <v>578</v>
-      </c>
-      <c r="D31" t="s">
-        <v>586</v>
-      </c>
-      <c r="E31" t="s">
-        <v>593</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>69.692984529743995</v>
-      </c>
-      <c r="H31" t="s">
-        <v>353</v>
-      </c>
-      <c r="I31" t="s">
-        <v>311</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="O31" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA31" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>571</v>
-      </c>
-      <c r="B32" t="s">
-        <v>574</v>
-      </c>
-      <c r="C32" t="s">
-        <v>583</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.171823644665061</v>
-      </c>
-      <c r="H32" t="s">
-        <v>363</v>
-      </c>
-      <c r="I32" t="s">
-        <v>364</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="O32" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z32" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA32" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>571</v>
-      </c>
-      <c r="B33" t="s">
-        <v>573</v>
-      </c>
-      <c r="C33" t="s">
-        <v>578</v>
-      </c>
-      <c r="D33" t="s">
-        <v>586</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>64.336715888598903</v>
-      </c>
-      <c r="H33" t="s">
-        <v>375</v>
-      </c>
-      <c r="I33" t="s">
-        <v>311</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="O33" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA33" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>571</v>
-      </c>
-      <c r="B34" t="s">
-        <v>574</v>
-      </c>
-      <c r="C34" t="s">
-        <v>584</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E34" t="s">
-        <v>590</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ref="G34:G51" ca="1" si="2">RAND()*100</f>
-        <v>96.380557522219632</v>
-      </c>
-      <c r="H34" t="s">
-        <v>387</v>
-      </c>
-      <c r="I34" t="s">
-        <v>388</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="O34" s="3">
-        <f t="shared" ref="O34:O51" si="3">IF(P34=P35,"",1)</f>
-        <v>1</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="X34" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA34" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>571</v>
-      </c>
-      <c r="B35" t="s">
-        <v>574</v>
-      </c>
-      <c r="C35" t="s">
-        <v>584</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E35" t="s">
-        <v>586</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.356426166393376</v>
-      </c>
-      <c r="H35" t="s">
-        <v>397</v>
-      </c>
-      <c r="I35" t="s">
-        <v>388</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="O35" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA35" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>571</v>
-      </c>
-      <c r="B36" t="s">
-        <v>573</v>
-      </c>
-      <c r="C36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E36" t="s">
-        <v>592</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.404364731624305</v>
-      </c>
-      <c r="H36" t="s">
-        <v>405</v>
-      </c>
-      <c r="I36" t="s">
-        <v>406</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="O36" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="X36" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>571</v>
-      </c>
-      <c r="B37" t="s">
-        <v>573</v>
-      </c>
-      <c r="C37" t="s">
-        <v>578</v>
-      </c>
-      <c r="D37" t="s">
-        <v>590</v>
-      </c>
-      <c r="E37" t="s">
-        <v>590</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>71.623255651721891</v>
-      </c>
-      <c r="H37" t="s">
-        <v>418</v>
-      </c>
-      <c r="I37" t="s">
-        <v>311</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="O37" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>571</v>
-      </c>
-      <c r="B38" t="s">
-        <v>573</v>
-      </c>
-      <c r="C38" t="s">
-        <v>578</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E38" t="s">
-        <v>592</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.283354709323547</v>
-      </c>
-      <c r="H38" t="s">
-        <v>428</v>
-      </c>
-      <c r="I38" t="s">
-        <v>311</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="O38" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA38" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>571</v>
-      </c>
-      <c r="B39" t="s">
-        <v>574</v>
-      </c>
-      <c r="C39" t="s">
-        <v>584</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>54.523574843734259</v>
-      </c>
-      <c r="H39" t="s">
-        <v>437</v>
-      </c>
-      <c r="I39" t="s">
-        <v>388</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="O39" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="X39" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>571</v>
-      </c>
-      <c r="B40" t="s">
-        <v>574</v>
-      </c>
-      <c r="C40" t="s">
-        <v>584</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E40" t="s">
-        <v>593</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8566319716665705</v>
-      </c>
-      <c r="H40" t="s">
-        <v>449</v>
-      </c>
-      <c r="I40" t="s">
-        <v>388</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="O40" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA40" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>571</v>
-      </c>
-      <c r="B41" t="s">
-        <v>573</v>
-      </c>
-      <c r="C41" t="s">
-        <v>578</v>
-      </c>
-      <c r="D41" t="s">
-        <v>586</v>
-      </c>
-      <c r="E41" t="s">
-        <v>586</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>31.953502931460786</v>
-      </c>
-      <c r="H41" t="s">
-        <v>457</v>
-      </c>
-      <c r="I41" t="s">
-        <v>458</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="O41" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="Y41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z41" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA41" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>571</v>
-      </c>
-      <c r="B42" t="s">
-        <v>573</v>
-      </c>
-      <c r="C42" t="s">
-        <v>578</v>
-      </c>
-      <c r="D42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E42" t="s">
-        <v>586</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>80.254674950895549</v>
-      </c>
-      <c r="H42" t="s">
-        <v>471</v>
-      </c>
-      <c r="I42" t="s">
-        <v>311</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="O42" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA42" s="6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>571</v>
-      </c>
-      <c r="B43" t="s">
-        <v>573</v>
-      </c>
-      <c r="C43" t="s">
-        <v>578</v>
-      </c>
-      <c r="D43" t="s">
-        <v>586</v>
-      </c>
-      <c r="E43" t="s">
-        <v>591</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>65.886213245577778</v>
-      </c>
-      <c r="H43" t="s">
-        <v>478</v>
-      </c>
-      <c r="I43" t="s">
-        <v>311</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="O43" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="X43" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA43" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>571</v>
-      </c>
-      <c r="B44" t="s">
-        <v>573</v>
-      </c>
-      <c r="C44" t="s">
-        <v>580</v>
-      </c>
-      <c r="D44" t="s">
-        <v>586</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>54.805419477362726</v>
-      </c>
-      <c r="H44" t="s">
-        <v>485</v>
-      </c>
-      <c r="I44" t="s">
-        <v>406</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="O44" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="X44" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA44" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>571</v>
-      </c>
-      <c r="B45" t="s">
-        <v>573</v>
-      </c>
-      <c r="C45" t="s">
-        <v>578</v>
-      </c>
-      <c r="D45" t="s">
-        <v>586</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F45" t="s">
-        <v>590</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.337291690491945</v>
-      </c>
-      <c r="H45" t="s">
-        <v>493</v>
-      </c>
-      <c r="I45" t="s">
-        <v>311</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="O45" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W45" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="X45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA45" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>571</v>
-      </c>
-      <c r="B46" t="s">
-        <v>573</v>
-      </c>
-      <c r="C46" t="s">
-        <v>580</v>
-      </c>
-      <c r="D46" t="s">
-        <v>590</v>
-      </c>
-      <c r="E46" t="s">
-        <v>590</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>71.114997037828644</v>
-      </c>
-      <c r="H46" t="s">
-        <v>503</v>
-      </c>
-      <c r="I46" t="s">
-        <v>406</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="O46" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="X46" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA46" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>571</v>
-      </c>
-      <c r="B47" t="s">
-        <v>573</v>
-      </c>
-      <c r="C47" t="s">
-        <v>578</v>
-      </c>
-      <c r="D47" t="s">
-        <v>586</v>
-      </c>
-      <c r="E47" t="s">
-        <v>591</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.665308884542613</v>
-      </c>
-      <c r="H47" t="s">
-        <v>514</v>
-      </c>
-      <c r="I47" t="s">
-        <v>311</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="O47" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="S47" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W47" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="X47" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA47" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>571</v>
-      </c>
-      <c r="B48" t="s">
-        <v>574</v>
-      </c>
-      <c r="C48" t="s">
-        <v>581</v>
-      </c>
-      <c r="D48" t="s">
-        <v>586</v>
-      </c>
-      <c r="E48" t="s">
-        <v>586</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>46.350891634768445</v>
-      </c>
-      <c r="H48" t="s">
-        <v>525</v>
-      </c>
-      <c r="I48" t="s">
-        <v>332</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="O48" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U48" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="X48" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA48" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>571</v>
-      </c>
-      <c r="B49" t="s">
-        <v>573</v>
-      </c>
-      <c r="C49" t="s">
-        <v>578</v>
-      </c>
-      <c r="D49" t="s">
-        <v>586</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.577311238469138</v>
-      </c>
-      <c r="H49" t="s">
-        <v>534</v>
-      </c>
-      <c r="I49" t="s">
-        <v>458</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="O49" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="Y49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z49" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA49" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>571</v>
-      </c>
-      <c r="B50" t="s">
-        <v>573</v>
-      </c>
-      <c r="C50" t="s">
-        <v>580</v>
-      </c>
-      <c r="D50" t="s">
-        <v>586</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>52.459771032249172</v>
-      </c>
-      <c r="H50" t="s">
-        <v>546</v>
-      </c>
-      <c r="I50" t="s">
-        <v>406</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="O50" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U50" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="X50" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z50" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA50" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>571</v>
-      </c>
-      <c r="B51" t="s">
-        <v>573</v>
-      </c>
-      <c r="C51" t="s">
-        <v>580</v>
-      </c>
-      <c r="D51" t="s">
-        <v>586</v>
-      </c>
-      <c r="E51" t="s">
-        <v>590</v>
-      </c>
-      <c r="F51" t="s">
-        <v>590</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>57.894444481941953</v>
-      </c>
-      <c r="H51" t="s">
-        <v>556</v>
-      </c>
-      <c r="I51" t="s">
-        <v>406</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="O51" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q51" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="U51" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W51" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="X51" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z51" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA51" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Day04_hw/спутатьперепутать.xlsx
+++ b/Day04_hw/спутатьперепутать.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="3.2b PREFIX PARTICIPANT2" sheetId="11" r:id="rId2"/>
-    <sheet name="3.1.a PREFIX TENSE" sheetId="2" r:id="rId3"/>
-    <sheet name="3.1b PREFIX PERSONNUM" sheetId="4" r:id="rId4"/>
-    <sheet name="3.1c PREFIX TENSE PERSONNUMBER" sheetId="5" r:id="rId5"/>
-    <sheet name="3.2а PREFIX PARTICIPANT1" sheetId="7" r:id="rId6"/>
+    <sheet name="3.1.a PREFIX TENSE" sheetId="2" r:id="rId2"/>
+    <sheet name="3.1b PREFIX PERSONNUM" sheetId="4" r:id="rId3"/>
+    <sheet name="3.1c PREFIX TENSE PERSONNUMBER" sheetId="5" r:id="rId4"/>
+    <sheet name="3.2а PREFIX PARTICIPANT1" sheetId="7" r:id="rId5"/>
+    <sheet name="3.2b PREFIX PARTICIPANT2" sheetId="11" r:id="rId6"/>
     <sheet name="3.3 График" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -3294,1288 +3294,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[спутатьперепутать.xlsx]3.2b PREFIX PARTICIPANT2!Сводная таблица1</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$B$3:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$B$5:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB0E-4BC3-823C-C0E17FE6DE48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>абстрактный объект</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$C$5:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB0E-4BC3-823C-C0E17FE6DE48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>животное</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$D$5:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FB0E-4BC3-823C-C0E17FE6DE48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$E$3:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>лицо</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FB0E-4BC3-823C-C0E17FE6DE48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$F$3:$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>место</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$F$5:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FB0E-4BC3-823C-C0E17FE6DE48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$G$3:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>не определено</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$G$5:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FB0E-4BC3-823C-C0E17FE6DE48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$H$3:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>неодушевленный конкретный объект</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$H$5:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FB0E-4BC3-823C-C0E17FE6DE48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$I$3:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>отсутствует</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>пере</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>с</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3.2b PREFIX PARTICIPANT2'!$I$5:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FB0E-4BC3-823C-C0E17FE6DE48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="420564175"/>
-        <c:axId val="420564591"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="420564175"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420564591"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="420564591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420564175"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4989,6 +3707,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5071,7 +3790,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -6510,7 +5229,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -8241,7 +6960,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -8677,6 +7396,1288 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[спутатьперепутать.xlsx]3.2b PREFIX PARTICIPANT2!Сводная таблица1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>абстрактный объект</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>животное</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>лицо</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>место</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$F$5:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>не определено</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$G$5:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>неодушевленный конкретный объект</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$H$5:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>отсутствует</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>пере</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2b PREFIX PARTICIPANT2'!$I$5:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FB0E-4BC3-823C-C0E17FE6DE48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="420564175"/>
+        <c:axId val="420564591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="420564175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420564591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420564591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420564175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13609,41 +13610,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1671637</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -13675,7 +13641,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13710,7 +13676,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13745,7 +13711,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13759,6 +13725,41 @@
       <xdr:colOff>185737</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1671637</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16792,193 +16793,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю PARTICIPANT2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
@@ -17065,7 +16879,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -17265,7 +17079,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:M8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="3">
@@ -17508,7 +17322,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -17601,6 +17415,193 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю PARTICIPANT2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -18108,7 +18109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A37" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -18224,7 +18225,7 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G33" ca="1" si="0">RAND()*100</f>
-        <v>90.927954714222466</v>
+        <v>40.558919188866774</v>
       </c>
       <c r="H2" t="s">
         <v>569</v>
@@ -18309,7 +18310,7 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37.622612662953181</v>
+        <v>81.27538039964702</v>
       </c>
       <c r="H3" t="s">
         <v>37</v>
@@ -18394,7 +18395,7 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80640166412359049</v>
+        <v>61.747579210437223</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
@@ -18479,7 +18480,7 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>53.588458115864888</v>
+        <v>95.535432454715192</v>
       </c>
       <c r="H5" t="s">
         <v>68</v>
@@ -18564,7 +18565,7 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.383850840296731</v>
+        <v>76.673329704938311</v>
       </c>
       <c r="H6" t="s">
         <v>81</v>
@@ -18649,7 +18650,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.18348540926047</v>
+        <v>60.074847520447207</v>
       </c>
       <c r="H7" t="s">
         <v>94</v>
@@ -18734,7 +18735,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.072030375993474</v>
+        <v>40.396004647415317</v>
       </c>
       <c r="H8" t="s">
         <v>106</v>
@@ -18819,7 +18820,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62.047031880756165</v>
+        <v>64.641157592483381</v>
       </c>
       <c r="H9" t="s">
         <v>118</v>
@@ -18904,7 +18905,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.520419865509862</v>
+        <v>13.844484866334138</v>
       </c>
       <c r="H10" t="s">
         <v>129</v>
@@ -18989,7 +18990,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45.661835716554378</v>
+        <v>9.5081118446817001</v>
       </c>
       <c r="H11" t="s">
         <v>139</v>
@@ -19074,7 +19075,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.951073392611757</v>
+        <v>68.378323544799585</v>
       </c>
       <c r="H12" t="s">
         <v>149</v>
@@ -19159,7 +19160,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33.490490738672719</v>
+        <v>9.6791022648619283</v>
       </c>
       <c r="H13" t="s">
         <v>163</v>
@@ -19244,7 +19245,7 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>84.722959084850388</v>
+        <v>1.1561290312012695</v>
       </c>
       <c r="H14" t="s">
         <v>175</v>
@@ -19329,7 +19330,7 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55.034553759962357</v>
+        <v>12.283179731443528</v>
       </c>
       <c r="H15" t="s">
         <v>187</v>
@@ -19414,7 +19415,7 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>81.418551892057039</v>
+        <v>62.354367406363409</v>
       </c>
       <c r="H16" t="s">
         <v>196</v>
@@ -19499,7 +19500,7 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75.792946518499576</v>
+        <v>59.418400193087585</v>
       </c>
       <c r="H17" t="s">
         <v>206</v>
@@ -19584,7 +19585,7 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>88.694383738695521</v>
+        <v>65.029399773030889</v>
       </c>
       <c r="H18" t="s">
         <v>215</v>
@@ -19669,7 +19670,7 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19.875936475048348</v>
+        <v>25.742920749695152</v>
       </c>
       <c r="H19" t="s">
         <v>226</v>
@@ -19754,7 +19755,7 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.621453966004772</v>
+        <v>12.775446374249244</v>
       </c>
       <c r="H20" t="s">
         <v>237</v>
@@ -19839,7 +19840,7 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.930192238916547</v>
+        <v>55.196206696730258</v>
       </c>
       <c r="H21" t="s">
         <v>248</v>
@@ -19924,7 +19925,7 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.063984953368969</v>
+        <v>35.010765458111102</v>
       </c>
       <c r="H22" t="s">
         <v>258</v>
@@ -20009,7 +20010,7 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>48.276760494250667</v>
+        <v>17.904265149049603</v>
       </c>
       <c r="H23" t="s">
         <v>266</v>
@@ -20094,7 +20095,7 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>92.993959465000103</v>
+        <v>20.483176353536248</v>
       </c>
       <c r="H24" t="s">
         <v>276</v>
@@ -20179,7 +20180,7 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>93.682908480171506</v>
+        <v>82.647394818232129</v>
       </c>
       <c r="H25" t="s">
         <v>286</v>
@@ -20264,7 +20265,7 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3753803255584458</v>
+        <v>81.121355862776895</v>
       </c>
       <c r="H26" t="s">
         <v>299</v>
@@ -20349,7 +20350,7 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55.668313748722333</v>
+        <v>71.982304676866377</v>
       </c>
       <c r="H27" t="s">
         <v>310</v>
@@ -20434,7 +20435,7 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>89.646317808562813</v>
+        <v>97.077349368287202</v>
       </c>
       <c r="H28" t="s">
         <v>320</v>
@@ -20519,7 +20520,7 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>78.074072086541861</v>
+        <v>78.600358107182089</v>
       </c>
       <c r="H29" t="s">
         <v>331</v>
@@ -20604,7 +20605,7 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>48.951946737419149</v>
+        <v>57.562669137131707</v>
       </c>
       <c r="H30" t="s">
         <v>343</v>
@@ -20689,7 +20690,7 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>97.988161453625494</v>
+        <v>41.502551097895115</v>
       </c>
       <c r="H31" t="s">
         <v>353</v>
@@ -20774,7 +20775,7 @@
       </c>
       <c r="G32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>97.226652510375999</v>
+        <v>46.092658515514053</v>
       </c>
       <c r="H32" t="s">
         <v>363</v>
@@ -20859,7 +20860,7 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>91.450487676450138</v>
+        <v>85.029223073407906</v>
       </c>
       <c r="H33" t="s">
         <v>375</v>
@@ -20944,7 +20945,7 @@
       </c>
       <c r="G34" s="1">
         <f t="shared" ref="G34:G51" ca="1" si="2">RAND()*100</f>
-        <v>17.256312627145821</v>
+        <v>25.181425226016263</v>
       </c>
       <c r="H34" t="s">
         <v>387</v>
@@ -21029,7 +21030,7 @@
       </c>
       <c r="G35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13.840536021153616</v>
+        <v>75.469127337762629</v>
       </c>
       <c r="H35" t="s">
         <v>397</v>
@@ -21114,7 +21115,7 @@
       </c>
       <c r="G36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16.10065592985346</v>
+        <v>20.958164485952182</v>
       </c>
       <c r="H36" t="s">
         <v>405</v>
@@ -21199,7 +21200,7 @@
       </c>
       <c r="G37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>26.372620512358115</v>
+        <v>17.670518167152714</v>
       </c>
       <c r="H37" t="s">
         <v>418</v>
@@ -21284,7 +21285,7 @@
       </c>
       <c r="G38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>28.604537161515797</v>
+        <v>52.502918329840696</v>
       </c>
       <c r="H38" t="s">
         <v>428</v>
@@ -21369,7 +21370,7 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17.447147669419426</v>
+        <v>18.310987114322085</v>
       </c>
       <c r="H39" t="s">
         <v>437</v>
@@ -21454,7 +21455,7 @@
       </c>
       <c r="G40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>78.697250556849923</v>
+        <v>98.848945791126596</v>
       </c>
       <c r="H40" t="s">
         <v>449</v>
@@ -21539,7 +21540,7 @@
       </c>
       <c r="G41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.711397192473157</v>
+        <v>44.596055314385211</v>
       </c>
       <c r="H41" t="s">
         <v>457</v>
@@ -21624,7 +21625,7 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.307263511415968</v>
+        <v>69.809429068225484</v>
       </c>
       <c r="H42" t="s">
         <v>471</v>
@@ -21709,7 +21710,7 @@
       </c>
       <c r="G43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>90.688167424675399</v>
+        <v>51.290175978947076</v>
       </c>
       <c r="H43" t="s">
         <v>478</v>
@@ -21794,7 +21795,7 @@
       </c>
       <c r="G44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1776175426417996</v>
+        <v>88.997703341535043</v>
       </c>
       <c r="H44" t="s">
         <v>485</v>
@@ -21879,7 +21880,7 @@
       </c>
       <c r="G45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.664162541726128</v>
+        <v>54.495139614980914</v>
       </c>
       <c r="H45" t="s">
         <v>493</v>
@@ -21964,7 +21965,7 @@
       </c>
       <c r="G46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>19.263857653311909</v>
+        <v>50.655478754081862</v>
       </c>
       <c r="H46" t="s">
         <v>503</v>
@@ -22049,7 +22050,7 @@
       </c>
       <c r="G47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>74.910783852877955</v>
+        <v>15.780433536174987</v>
       </c>
       <c r="H47" t="s">
         <v>514</v>
@@ -22134,7 +22135,7 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>93.013666323623795</v>
+        <v>83.769599459830104</v>
       </c>
       <c r="H48" t="s">
         <v>525</v>
@@ -22219,7 +22220,7 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1147570847989847</v>
+        <v>42.661284076525199</v>
       </c>
       <c r="H49" t="s">
         <v>534</v>
@@ -22304,7 +22305,7 @@
       </c>
       <c r="G50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>77.080067120092266</v>
+        <v>19.436176332193313</v>
       </c>
       <c r="H50" t="s">
         <v>546</v>
@@ -22389,7 +22390,7 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2620675461871684</v>
+        <v>29.804657239787058</v>
       </c>
       <c r="H51" t="s">
         <v>556</v>
@@ -22459,165 +22460,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E4" t="s">
-        <v>586</v>
-      </c>
-      <c r="F4" t="s">
-        <v>588</v>
-      </c>
-      <c r="G4" t="s">
-        <v>591</v>
-      </c>
-      <c r="H4" t="s">
-        <v>592</v>
-      </c>
-      <c r="I4" t="s">
-        <v>589</v>
-      </c>
-      <c r="J4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2</v>
-      </c>
-      <c r="G5" s="10">
-        <v>6</v>
-      </c>
-      <c r="H5" s="10">
-        <v>2</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B6" s="10">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10">
-        <v>4</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="10">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="B7" s="10">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10">
-        <v>9</v>
-      </c>
-      <c r="H7" s="10">
-        <v>5</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D8"/>
   <sheetViews>
@@ -22708,7 +22550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K7"/>
   <sheetViews>
@@ -22872,7 +22714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M8"/>
   <sheetViews>
@@ -23077,7 +22919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D8"/>
   <sheetViews>
@@ -23169,6 +23011,165 @@
         <v>25</v>
       </c>
       <c r="D8" s="10">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F4" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H4" t="s">
+        <v>592</v>
+      </c>
+      <c r="I4" t="s">
+        <v>589</v>
+      </c>
+      <c r="J4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="10">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>9</v>
+      </c>
+      <c r="H7" s="10">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
         <v>50</v>
       </c>
     </row>
